--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M17"/>
+  <dimension ref="C2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M13" sqref="M10:M13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -619,6 +619,86 @@
       <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,6 +71,27 @@
     <font>
       <sz val="20"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -140,6 +161,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M26"/>
+  <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -430,7 +455,7 @@
     <col min="13" max="13" width="78.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -445,7 +470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -460,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5">
@@ -476,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="6">
@@ -492,7 +517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -501,7 +526,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -510,7 +535,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -519,46 +544,85 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="1"/>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="13"/>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12">
+        <v>5</v>
+      </c>
+      <c r="H9" s="12">
+        <v>6</v>
+      </c>
+      <c r="I9" s="12">
+        <v>7</v>
+      </c>
+      <c r="J9" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
       <c r="M10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="1"/>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
       <c r="M11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="1"/>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="13">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="13">
+        <v>4</v>
+      </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -575,7 +639,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="13">
+        <v>5</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -589,7 +656,10 @@
       <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="13">
+        <v>6</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -599,7 +669,10 @@
       <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="13">
+        <v>7</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -609,7 +682,10 @@
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="13">
+        <v>8</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -619,7 +695,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -629,7 +705,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -639,7 +715,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -649,7 +725,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -659,7 +735,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -669,7 +745,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -679,7 +755,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -689,7 +765,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
